--- a/data/trans_dic/P36$fruta-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36$fruta-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,0; 11,17</t>
+          <t>6,02; 11,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,88; 20,98</t>
+          <t>13,88; 20,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,11; 24,22</t>
+          <t>16,03; 24,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,55; 19,25</t>
+          <t>12,54; 19,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,37; 18,17</t>
+          <t>11,15; 18,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,44; 18,58</t>
+          <t>11,51; 18,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,99; 13,94</t>
+          <t>9,73; 13,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,52; 18,2</t>
+          <t>13,47; 18,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,97; 20,29</t>
+          <t>15,07; 20,09</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,35; 14,16</t>
+          <t>9,39; 14,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 17,58</t>
+          <t>11,75; 17,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,12; 20,31</t>
+          <t>14,12; 20,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,02; 14,35</t>
+          <t>9,36; 14,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,54; 18,78</t>
+          <t>12,41; 18,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,38; 19,29</t>
+          <t>13,65; 19,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 13,73</t>
+          <t>10,02; 13,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,89; 17,04</t>
+          <t>12,98; 17,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,56; 19,06</t>
+          <t>14,74; 18,98</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,95</t>
+          <t>5,63; 10,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 13,44</t>
+          <t>8,58; 13,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 11,78</t>
+          <t>7,37; 11,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 13,06</t>
+          <t>8,24; 13,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 13,42</t>
+          <t>8,7; 13,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,79; 18,56</t>
+          <t>12,77; 18,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,6; 10,96</t>
+          <t>7,64; 10,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 12,65</t>
+          <t>9,11; 12,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,85; 14,39</t>
+          <t>10,63; 14,37</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 8,18</t>
+          <t>3,9; 8,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 11,59</t>
+          <t>6,54; 11,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,04</t>
+          <t>8,83; 14,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 12,31</t>
+          <t>6,78; 12,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 12,8</t>
+          <t>7,48; 13,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,22; 15,49</t>
+          <t>10,18; 15,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 9,18</t>
+          <t>6,02; 9,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,75; 11,24</t>
+          <t>7,64; 11,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,21; 13,96</t>
+          <t>9,96; 13,91</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 8,61</t>
+          <t>3,77; 9,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,03; 14,65</t>
+          <t>8,03; 15,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,94; 18,08</t>
+          <t>10,51; 17,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 12,17</t>
+          <t>6,27; 11,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,63; 16,41</t>
+          <t>9,98; 16,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,91; 14,98</t>
+          <t>9,08; 15,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,36</t>
+          <t>5,77; 9,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,86; 14,56</t>
+          <t>9,94; 14,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,71; 15,31</t>
+          <t>10,71; 15,06</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,06; 11,31</t>
+          <t>4,98; 11,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,73; 14,47</t>
+          <t>6,64; 13,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,9; 12,42</t>
+          <t>5,81; 12,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,9; 14,42</t>
+          <t>7,85; 14,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,83; 17,36</t>
+          <t>9,72; 17,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,39; 17,28</t>
+          <t>9,99; 17,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,42; 12,09</t>
+          <t>7,02; 11,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,47; 14,54</t>
+          <t>9,43; 14,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,7; 13,42</t>
+          <t>8,97; 13,43</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 11,54</t>
+          <t>4,21; 11,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,09; 15,88</t>
+          <t>6,82; 16,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,33; 14,81</t>
+          <t>7,55; 15,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,82; 9,67</t>
+          <t>3,78; 9,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,73; 16,75</t>
+          <t>9,61; 16,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,86; 11,23</t>
+          <t>4,88; 11,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,57; 9,09</t>
+          <t>4,38; 8,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,71; 15,19</t>
+          <t>9,56; 15,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,71; 11,5</t>
+          <t>6,49; 11,32</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,12; 9,12</t>
+          <t>7,17; 9,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,93; 13,17</t>
+          <t>10,97; 13,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,97; 14,21</t>
+          <t>11,9; 14,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,69; 11,89</t>
+          <t>9,66; 11,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,47; 13,8</t>
+          <t>11,53; 13,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,2; 14,48</t>
+          <t>12,31; 14,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,66; 10,12</t>
+          <t>8,72; 10,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,48; 13,15</t>
+          <t>11,46; 13,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,37; 14,0</t>
+          <t>12,34; 14,01</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, fruta o zumo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>40503</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>78615</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>82857</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>72434</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>61416</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>57669</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>112937</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>140031</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>140526</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>29685; 55592</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>63026; 94793</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>67239; 100757</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>58609; 89228</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>47728; 77114</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>45426; 71822</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>93518; 132838</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>118878; 162776</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>122737; 163592</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>85980</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>99282</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>101449</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>73022</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>93986</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>91528</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>159003</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>193268</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>192977</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>69065; 106130</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>80634; 117911</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>83383; 122431</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>58368; 90409</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>75569; 112867</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>76909; 110620</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>136166; 184713</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>168104; 221156</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>170074; 219088</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>48488</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>72829</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>63127</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>72411</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>76057</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>102830</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>120900</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>148885</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>165957</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>35753; 64862</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>58261; 90071</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49294; 78933</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>56826; 89655</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>61645; 95209</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>84449; 121924</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>101254; 145303</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>126470; 173077</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>141403; 191231</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>29354</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>53740</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>71970</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>47531</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>61540</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>80847</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>76885</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>115280</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>152817</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>20166; 41641</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>40117; 70798</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>56823; 91270</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>34807; 62655</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>46079; 81943</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>65970; 99459</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>62110; 98714</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>93894; 139062</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>128675; 179629</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22933</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>47764</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>66255</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36297</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>57567</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>58935</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>59230</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>105331</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>125191</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14560; 34872</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>34481; 64596</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>50218; 83891</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>25317; 47690</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>44588; 74042</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>45094; 74959</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>45597; 75370</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>87112; 129417</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>104352; 146810</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>22380</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>31221</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>28554</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>37167</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>46606</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>49591</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>59548</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>77827</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>78144</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>14563; 33457</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>20573; 43307</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>19413; 40741</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>26934; 48381</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>34424; 61171</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>37724; 64506</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>44595; 73945</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>62565; 98369</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>63856; 95661</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>14979</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>27104</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>27142</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>20425</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>50208</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>29994</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>35404</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>77311</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>57137</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8840; 24854</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>16972; 40129</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>19278; 38410</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>12613; 30740</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>37377; 65777</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>19462; 44241</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>23793; 47447</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>60971; 96211</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>42467; 74073</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>264619</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>410555</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>441354</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>359288</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>447378</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>471394</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>623906</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>857934</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>912748</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>234573; 300452</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>375159; 453293</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>403547; 479964</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>326152; 398925</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>409578; 488101</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>435813; 520047</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>579619; 676510</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>798805; 912944</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>855413; 971375</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>